--- a/DATA_goal/Junction_Flooding_495.xlsx
+++ b/DATA_goal/Junction_Flooding_495.xlsx
@@ -457,7 +457,7 @@
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
@@ -655,103 +655,103 @@
         <v>44826.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44826.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.7</v>
+        <v>17.03</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.11</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.62</v>
+        <v>36.22</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.07</v>
+        <v>30.71</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.99</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.54</v>
+        <v>45.38</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.98</v>
+        <v>19.79</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.4</v>
+        <v>14</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.95</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.28</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.96</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.86</v>
+        <v>18.64</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>192.58</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>36.34</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>24.43</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>4.06</v>
+        <v>40.56</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.19</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44826.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.57</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.99</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.65</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.32</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.55</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>2.12</v>
+        <v>21.15</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.33</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44826.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.06</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.65</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.75</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.39</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.72</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.85</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.05</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_495.xlsx
+++ b/DATA_goal/Junction_Flooding_495.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44826.54861111111</v>
+        <v>45176.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.96</v>
+        <v>20.658</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>14.028</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>4.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>9.69</v>
+        <v>43.704</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>35.637</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>16.257</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>52.557</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>25.014</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>10.522</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>16.084</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>17.263</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>3.55</v>
+        <v>18.024</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>5.19</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>16.166</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>22.644</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>13.689</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>3.709</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.453</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>48.94</v>
+        <v>238.72</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>44.979</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>14.922</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>29.658</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>15.316</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>2.936</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>26.039</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>13.181</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>11.919</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>13.951</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>17.711</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>3.458</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>46.546</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>8.337999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44826.55555555555</v>
+        <v>45176.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.03</v>
+        <v>23.541</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.11</v>
+        <v>16.982</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.95</v>
+        <v>2.047</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>36.22</v>
+        <v>50.805</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>30.71</v>
+        <v>41.68</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.99</v>
+        <v>18.525</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>45.38</v>
+        <v>70.878</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.79</v>
+        <v>28.505</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>12.477</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14</v>
+        <v>18.64</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.95</v>
+        <v>20.381</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.28</v>
+        <v>21.369</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.13</v>
+        <v>5.918</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.96</v>
+        <v>18.422</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.64</v>
+        <v>26.097</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.76</v>
+        <v>15.636</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.73</v>
+        <v>1.663</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.31</v>
+        <v>1.291</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>192.58</v>
+        <v>273.097</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>36.34</v>
+        <v>51.526</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.86</v>
+        <v>17.004</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>24.41</v>
+        <v>34.404</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.47</v>
+        <v>18.101</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.75</v>
+        <v>2.921</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>24.43</v>
+        <v>34.387</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.11</v>
+        <v>15.02</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.45</v>
+        <v>13.45</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.69</v>
+        <v>15.781</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.57</v>
+        <v>21.162</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>40.56</v>
+        <v>64.35299999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.19</v>
+        <v>9.561999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.87</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44826.5625</v>
+        <v>45176.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.57</v>
+        <v>18.737</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.09</v>
+        <v>13.617</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.32</v>
+        <v>1.399</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.99</v>
+        <v>40.532</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.65</v>
+        <v>33.245</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.71</v>
+        <v>14.745</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.32</v>
+        <v>58.718</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.55</v>
+        <v>22.687</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.38</v>
+        <v>9.981999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.18</v>
+        <v>14.844</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.23</v>
+        <v>16.297</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.07</v>
+        <v>17.09</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.58</v>
+        <v>4.711</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.73</v>
+        <v>14.663</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.77</v>
+        <v>20.801</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.5</v>
+        <v>12.453</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.39</v>
+        <v>1.092</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>21.15</v>
+        <v>215.869</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.43</v>
+        <v>41.048</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.54</v>
+        <v>13.534</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.73</v>
+        <v>27.445</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.22</v>
+        <v>14.457</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.288</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.94</v>
+        <v>28.077</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.955</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.03</v>
+        <v>10.684</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.34</v>
+        <v>12.54</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.31</v>
+        <v>16.96</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.33</v>
+        <v>53.274</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.18</v>
+        <v>7.606</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.96</v>
+        <v>16.921</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44826.56944444445</v>
+        <v>45176.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.06</v>
+        <v>3.84</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.68</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.01</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.71</v>
+        <v>6.56</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.37</v>
+        <v>3.03</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.07</v>
+        <v>4.65</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.73</v>
+        <v>2.81</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.75</v>
+        <v>3.33</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.69</v>
+        <v>3.4</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.98</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.39</v>
+        <v>3.01</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.12</v>
+        <v>4.27</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.21</v>
+        <v>2.75</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.72</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.39</v>
+        <v>38.53</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.07</v>
+        <v>8.77</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.23</v>
+        <v>2.78</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.72</v>
+        <v>5.73</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.69</v>
+        <v>2.96</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.68</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.16</v>
+        <v>7.97</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.91</v>
+        <v>2.45</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.58</v>
+        <v>2.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.09</v>
+        <v>2.69</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.85</v>
+        <v>3.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>7.05</v>
+        <v>16.75</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.49</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44826.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.41</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>37.49</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>47.22</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.19</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>15.91</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>198.52</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>37.49</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>25.39</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>24.17</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>42.26</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.49</v>
+        <v>3.47</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_495.xlsx
+++ b/DATA_goal/Junction_Flooding_495.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -465,7 +465,7 @@
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45176.50694444445</v>
+        <v>44826.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>20.658</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.028</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.08</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>43.704</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>35.637</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.257</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>52.557</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>25.014</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.522</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.084</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.263</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.024</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.19</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.166</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>22.644</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.689</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.709</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.453</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>238.72</v>
+        <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>44.979</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.922</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>29.658</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15.316</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.936</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>26.039</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.181</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.919</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.951</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.711</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.458</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>46.546</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.337999999999999</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.656</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45176.51388888889</v>
+        <v>44826.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.541</v>
+        <v>17.026</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.982</v>
+        <v>13.114</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.047</v>
+        <v>0.949</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>50.805</v>
+        <v>36.223</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>41.68</v>
+        <v>30.713</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.525</v>
+        <v>12.989</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>70.878</v>
+        <v>45.383</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>28.505</v>
+        <v>19.788</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.477</v>
+        <v>9.037000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.64</v>
+        <v>14.002</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.381</v>
+        <v>14.946</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.369</v>
+        <v>15.281</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.918</v>
+        <v>4.129</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.422</v>
+        <v>12.963</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.097</v>
+        <v>18.638</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.636</v>
+        <v>10.761</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.663</v>
+        <v>0.731</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.291</v>
+        <v>0.307</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>273.097</v>
+        <v>192.576</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>51.526</v>
+        <v>36.335</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.004</v>
+        <v>11.864</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>34.404</v>
+        <v>24.406</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.101</v>
+        <v>13.47</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.921</v>
+        <v>1.748</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>34.387</v>
+        <v>24.434</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.02</v>
+        <v>10.108</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.45</v>
+        <v>10.446</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.781</v>
+        <v>10.688</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.162</v>
+        <v>15.567</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.266</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>64.35299999999999</v>
+        <v>40.558</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.561999999999999</v>
+        <v>7.193</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.259</v>
+        <v>14.874</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45176.52083333334</v>
+        <v>44826.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.737</v>
+        <v>2.57</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.617</v>
+        <v>2.091</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.399</v>
+        <v>0.324</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>40.532</v>
+        <v>4.994</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>33.245</v>
+        <v>4.65</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.745</v>
+        <v>1.714</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>58.718</v>
+        <v>13.321</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.687</v>
+        <v>2.552</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.981999999999999</v>
+        <v>1.377</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.844</v>
+        <v>2.177</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.297</v>
+        <v>2.226</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.09</v>
+        <v>2.075</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.711</v>
+        <v>0.58</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.663</v>
+        <v>1.734</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.801</v>
+        <v>2.766</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.453</v>
+        <v>1.498</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.092</v>
+        <v>0.387</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>215.869</v>
+        <v>21.153</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>41.048</v>
+        <v>5.428</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.534</v>
+        <v>1.536</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>27.445</v>
+        <v>3.727</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.457</v>
+        <v>2.218</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.288</v>
+        <v>0.255</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>28.077</v>
+        <v>6.936</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.955</v>
+        <v>1.11</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.684</v>
+        <v>2.031</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.54</v>
+        <v>1.337</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.96</v>
+        <v>2.314</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.773</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>53.274</v>
+        <v>12.327</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.606</v>
+        <v>1.181</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.921</v>
+        <v>1.964</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45176.52777777778</v>
+        <v>44826.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.84</v>
+        <v>2.058</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.55</v>
+        <v>1.645</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.243</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>4.009</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.56</v>
+        <v>3.707</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.03</v>
+        <v>1.372</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>18</v>
+        <v>8.000999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.65</v>
+        <v>2.073</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2</v>
+        <v>1.036</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.81</v>
+        <v>1.73</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.33</v>
+        <v>1.754</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.4</v>
+        <v>1.685</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.459</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.01</v>
+        <v>1.387</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.27</v>
+        <v>2.124</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.75</v>
+        <v>1.213</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>15.386</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>4.066</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.234</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.723</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.689</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.582</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>7.049</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>1.576</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44826.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>0.72</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>38.53</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>3.47</v>
+      <c r="E6" s="4" t="n">
+        <v>37.49</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>47.22</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>198.52</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>37.49</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>42.26</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>15.49</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_495.xlsx
+++ b/DATA_goal/Junction_Flooding_495.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -465,7 +465,7 @@
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44826.54861111111</v>
+        <v>45176.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.96</v>
+        <v>20.658</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.926</v>
+        <v>14.028</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.074</v>
+        <v>4.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>9.69</v>
+        <v>43.704</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.442</v>
+        <v>35.637</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.413</v>
+        <v>16.257</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.191000000000001</v>
+        <v>52.557</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.526</v>
+        <v>25.014</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.102</v>
+        <v>10.522</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.543</v>
+        <v>16.084</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.171</v>
+        <v>17.263</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>3.55</v>
+        <v>18.024</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.877</v>
+        <v>5.19</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.454</v>
+        <v>16.166</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.766</v>
+        <v>22.644</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.485</v>
+        <v>13.689</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.205</v>
+        <v>3.709</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.453</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>48.94</v>
+        <v>238.72</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.632</v>
+        <v>44.979</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.995</v>
+        <v>14.922</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.545</v>
+        <v>29.658</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.641</v>
+        <v>15.316</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.661</v>
+        <v>2.936</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.552</v>
+        <v>26.039</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.905</v>
+        <v>13.181</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.889</v>
+        <v>11.919</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.236</v>
+        <v>13.951</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.485</v>
+        <v>17.711</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>3.458</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.812</v>
+        <v>46.546</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.376</v>
+        <v>8.337999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.752</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44826.55555555555</v>
+        <v>45176.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.026</v>
+        <v>23.541</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.114</v>
+        <v>16.982</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.949</v>
+        <v>2.047</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>36.223</v>
+        <v>50.805</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>30.713</v>
+        <v>41.68</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.989</v>
+        <v>18.525</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>45.383</v>
+        <v>70.878</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.788</v>
+        <v>28.505</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.037000000000001</v>
+        <v>12.477</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.002</v>
+        <v>18.64</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.946</v>
+        <v>20.381</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.281</v>
+        <v>21.369</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.129</v>
+        <v>5.918</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.963</v>
+        <v>18.422</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.638</v>
+        <v>26.097</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.761</v>
+        <v>15.636</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.731</v>
+        <v>1.663</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.307</v>
+        <v>1.291</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>192.576</v>
+        <v>273.097</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>36.335</v>
+        <v>51.526</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.864</v>
+        <v>17.004</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>24.406</v>
+        <v>34.404</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.47</v>
+        <v>18.101</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.748</v>
+        <v>2.921</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>24.434</v>
+        <v>34.387</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.108</v>
+        <v>15.02</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.446</v>
+        <v>13.45</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.688</v>
+        <v>15.781</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.567</v>
+        <v>21.162</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.033</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>40.558</v>
+        <v>64.35299999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.193</v>
+        <v>9.561999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.874</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44826.5625</v>
+        <v>45176.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.57</v>
+        <v>18.737</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.091</v>
+        <v>13.617</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.324</v>
+        <v>1.399</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.994</v>
+        <v>40.532</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.65</v>
+        <v>33.245</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.714</v>
+        <v>14.745</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.321</v>
+        <v>58.718</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.552</v>
+        <v>22.687</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.377</v>
+        <v>9.981999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.177</v>
+        <v>14.844</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.226</v>
+        <v>16.297</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.075</v>
+        <v>17.09</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.58</v>
+        <v>4.711</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.734</v>
+        <v>14.663</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.766</v>
+        <v>20.801</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.498</v>
+        <v>12.453</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.387</v>
+        <v>1.092</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>21.153</v>
+        <v>215.869</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.428</v>
+        <v>41.048</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.536</v>
+        <v>13.534</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.727</v>
+        <v>27.445</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.218</v>
+        <v>14.457</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.255</v>
+        <v>2.288</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.936</v>
+        <v>28.077</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.955</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.031</v>
+        <v>10.684</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.337</v>
+        <v>12.54</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.314</v>
+        <v>16.96</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.327</v>
+        <v>53.274</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.181</v>
+        <v>7.606</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.964</v>
+        <v>16.921</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44826.56944444445</v>
+        <v>45176.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.058</v>
+        <v>3.84</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.645</v>
+        <v>2.55</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.243</v>
+        <v>0.68</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.009</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.707</v>
+        <v>6.56</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.372</v>
+        <v>3.03</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>8.000999999999999</v>
+        <v>18</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.073</v>
+        <v>4.65</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.036</v>
+        <v>2</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.73</v>
+        <v>2.81</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.754</v>
+        <v>3.33</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.685</v>
+        <v>3.4</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.459</v>
+        <v>0.98</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.387</v>
+        <v>3.01</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.124</v>
+        <v>4.27</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.213</v>
+        <v>2.75</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.291</v>
+        <v>0.72</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.386</v>
+        <v>38.53</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.066</v>
+        <v>8.77</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.234</v>
+        <v>2.78</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.723</v>
+        <v>5.73</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.689</v>
+        <v>2.96</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.202</v>
+        <v>0.68</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.162</v>
+        <v>7.97</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.906</v>
+        <v>2.45</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.582</v>
+        <v>2.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.087</v>
+        <v>2.69</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.85</v>
+        <v>3.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>7.049</v>
+        <v>16.75</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.9409999999999999</v>
+        <v>1.49</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.576</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44826.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.41</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>37.49</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>47.22</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.19</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>15.91</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>198.52</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>37.49</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>25.39</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>24.17</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>42.26</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.49</v>
+        <v>3.47</v>
       </c>
     </row>
   </sheetData>
